--- a/results/data/11_02_2022/19_31_21_robothor.xlsx
+++ b/results/data/11_02_2022/19_31_21_robothor.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -540,37 +540,37 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1']</t>
+          <t>['FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[81, 91, 95]</t>
+          <t>[81, 91, 95, 102, 105, 192, 209, 209, 209, 209, 253, 253, 253, 253, 253, 254, 254, 285, 286, 286, 286, 304, 306, 309, 311, 388, 404, 404, 404, 404, 404, 447, 447, 466, 466, 510, 547, 600, 601, 622, 622, 622, 622, 622, 673, 673, 673, 725, 753, 753, 753, 768, 771, 775, 778, 821, 839, 839, 839, 839, 840, 843, 890, 928, 930, 945, 989, 989, 989, 989, 989, 989, 989, 989, 989, 992, 992, 1052, 1100, 1100, 1128, 1143, 1143, 1143, 1143, 1205, 1205, 1219, 1221, 1221, 1235, 1237, 1237, 1237, 1237, 1275, 1298, 1301, 1301, 1301, 1302, 1302, 1345, 1345, 1345, 1355, 1355, 1356, 1367, 1387, 1387, 1398, 1399, 1403, 1405, 1430, 1430, 1430, 1430, 1430, 1430]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[0.342, 0.37, 0.385]</t>
+          <t>[0.342, 0.37, 0.385, 0.368, 0.382, 0.37, 0.383, 0.378, 0.387, 0.38, 0.389, 0.385, 0.38, 0.385, 0.387, 0.382, 0.383, 0.389, 0.391, 0.389, 0.389, 0.402, 0.408, 0.393, 0.408, 0.412, 0.406, 0.404, 0.41, 0.406, 0.4, 0.415, 0.41, 0.421, 0.415, 0.414, 0.423, 0.423, 0.423, 0.43, 0.429, 0.427, 0.425, 0.436, 0.43, 0.442, 0.434, 0.444, 0.444, 0.436, 0.44, 0.447, 0.444, 0.466, 0.459, 0.459, 0.468, 0.474, 0.474, 0.472, 0.476, 0.466, 0.477, 0.476, 0.472, 0.474, 0.472, 0.474, 0.474, 0.481, 0.477, 0.474, 0.476, 0.472, 0.477, 0.47, 0.474, 0.498, 0.508, 0.506, 0.509, 0.513, 0.519, 0.509, 0.513, 0.532, 0.526, 0.519, 0.524, 0.524, 0.526, 0.521, 0.528, 0.521, 0.532, 0.524, 0.536, 0.538, 0.541, 0.536, 0.543, 0.524, 0.536, 0.547, 0.551, 0.545, 0.541, 0.538, 0.558, 0.555, 0.556, 0.555, 0.556, 0.556, 0.56, 0.566, 0.553, 0.553, 0.549, 0.556, 0.564]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0, 30, 60]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0, 25.01378006935116, 54.49313876628871]</t>
+          <t>[0, 25.01378006935116, 54.49313876628871, 82.31259477138511, 119.97006390094754, 162.5522119760513, 170.01626217365262, 217.72994415760036, 236.70443503856654, 236.70443503856654, 254.94713454246516, 290.8496304035187, 295.2681103229523, 329.7764503479004, 367.1894750118255, 399.6958975553512, 411.46460894346234, 434.6005666613578, 463.0846355319023, 471.5853137850761, 474.0882956445217, 507.91363386511796, 536.0161329448223, 573.8802353084087, 612.467518490553, 653.5813166320324, 667.5004170119763, 712.8520343005658, 733.1637135446073, 733.1637135446073, 750.6910130679609, 792.3736712157728, 814.3689316213132, 834.1001576840879, 858.3567170917989, 901.9177651226522, 915.6174152076246, 957.625734061003, 979.5526606976988, 999.7698511540891, 1020.5681005179883, 1043.9207206666472, 1080.0420414865018, 1118.5427676379682, 1159.9011045634747, 1187.8684290826322, 1199.2956041991713, 1223.3582778394225, 1252.615082639456, 1287.5623154580594, 1296.511001878977, 1318.1132438242437, 1341.331840735674, 1376.402342683077, 1412.2001837074758, 1454.2928818047048, 1467.1024477064611, 1512.3323827803138, 1532.893420106173, 1532.893420106173, 1574.4028991878038, 1610.6550617396836, 1644.3735250413422, 1669.556625002623, 1706.7491871058944, 1743.9473854243759, 1758.1715226709846, 1790.0630066692834, 1810.7776623070245, 1810.7776623070245, 1826.645612496138, 1864.1338620841507, 1891.5554215133193, 1928.1320502460005, 1970.2672648847106, 2011.2296716630462, 2041.7311732232574, 2071.4730741441253, 2094.928904026747, 2095.3486040294174, 2125.6432542026046, 2148.653955227137, 2188.255828624964, 2223.9558284103873, 2267.027426463366, 2293.5736356079583, 2314.7461463093764, 2334.1427606821067, 2361.7977092266087, 2394.4611502408984, 2407.0772257566455, 2430.3561192512516, 2464.7720324039465, 2489.131051969529, 2528.2870501995094, 2550.7948042392736, 2563.6503597378737, 2579.935433757306, 2608.175516569615, 2638.364454543591, 2652.3545488953596, 2660.327566581965, 2686.502160030604, 2718.6926727116115, 2745.484477883578, 2781.842224150897, 2833.9122175991542, 2866.8944490253934, 2903.3961724817764, 2929.7650184214126, 2940.04173924327, 2959.826680248977, 2983.0452771604073, 3019.461119788886, 3053.8642397344124, 3091.5518880307686, 3103.4585883557806, 3148.810195440055, 3169.9957001388084, 3169.9957001388084, 3184.661399739982]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0, 2.73, 7.49]</t>
+          <t>[0, 2.73, 7.49, 13.06, 19.85, 45.16, 60.3, 70.38, 76.41, 87.43, 112.9, 124.57, 135.82, 145.19, 158.02, 174.34, 188.21, 206.76, 220.92, 229.52, 244.16, 267.71, 283.46, 298.6, 311.56, 341.44, 360.41, 382.73, 400.47, 412.04, 428.79, 456.67, 472.53, 492.88, 505.33, 531.43, 551.01, 581.99, 600.6, 619.65, 639.29, 656.12, 675.66, 693.16, 728.74, 750.8, 767.78, 796.96, 824.23, 843.73, 867.63, 892.29, 909.47, 931.48, 953.07, 986.61, 1014.42, 1039.35, 1065.9, 1088.7, 1113.44, 1139.28, 1176.44, 1214.93, 1245.82, 1274.61, 1307.13, 1334.59, 1360.27, 1394.31, 1424.37, 1451.38, 1478.8, 1499.76, 1524.8, 1554.74, 1582.24, 1628.31, 1660.94, 1686.89, 1720.73, 1758.86, 1790.32, 1824.83, 1857.0, 1907.24, 1943.23, 1977.84, 2008.17, 2039.06, 2075.51, 2104.44, 2139.5, 2168.63, 2198.0, 2233.7, 2267.58, 2301.22, 2337.3, 2371.03, 2403.98, 2442.03, 2482.8, 2521.54, 2564.63, 2606.86, 2644.13, 2681.95, 2726.55, 2770.02, 2805.89, 2847.05, 2889.73, 2925.48, 2967.87, 3011.08, 3049.17, 3092.28, 3132.57, 3167.62, 3201.23]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -20, -20, -20, -20, -20, -20, -20, 0, -20, -20, -20, 0, -20, -20, -20, -20, 0, -20, -20, -20, -20, -10, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -20]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, -10, 0, -10, -10, 0, -10, 0, 0, 0, 0, -10, -10, 0, -20, 0, -20, 0, -20, 0, 0, 0, -20, 0, 0, -20, -20, -20, -20, 0, 0, -20, 0, -20, -20, -10, -20, 0, 0, -20, -10, -20, 0, 0, -20, -20, 0, 0, 0, 0, -10, -20, -20, 0, -20, -20, 0, 0, -10, 0, -10, 0, -10, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, -10, 0]</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -609,37 +609,37 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2']</t>
+          <t>['FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_4', 'FloorPlan_Train2_4', 'FloorPlan_Train3_4', 'FloorPlan_Train4_4', 'FloorPlan_Train5_4', 'FloorPlan_Train6_4', 'FloorPlan_Train7_4', 'FloorPlan_Train8_4', 'FloorPlan_Train9_4', 'FloorPlan_Train10_4', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train1_3', 'FloorPlan_Train2_3', 'FloorPlan_Train3_3', 'FloorPlan_Train4_3', 'FloorPlan_Train5_3', 'FloorPlan_Train6_3', 'FloorPlan_Train7_3', 'FloorPlan_Train8_3', 'FloorPlan_Train9_3', 'FloorPlan_Train10_3', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[81, 81, 81]</t>
+          <t>[81, 81, 81, 81, 87, 96, 107, 166, 216, 216, 255, 261, 276, 312, 312, 358, 358, 368, 380, 380, 386, 386, 451, 495, 495, 495, 495, 495, 495, 495, 495, 495, 495, 495, 546, 547, 547, 583, 624, 624, 624, 642, 682, 682, 682, 690, 690, 714, 714, 714, 729, 729, 729, 732, 733, 811, 848, 893, 950, 950, 950, 959, 961, 961, 961, 978, 978, 979, 979, 979, 985, 987, 1010, 1012, 1083, 1125, 1130, 1130, 1130, 1130, 1166, 1170, 1172, 1177, 1216, 1245, 1245, 1245, 1245, 1245, 1256, 1256, 1256, 1259, 1259, 1259, 1259, 1265, 1279, 1279, 1279, 1279, 1279, 1279, 1279, 1279, 1279, 1318, 1327, 1327, 1327, 1327, 1327, 1327, 1328, 1333, 1333, 1369, 1371, 1371, 1389]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.34, 0.34, 0.34]</t>
+          <t>[0.34, 0.34, 0.34, 0.34, 0.329, 0.312, 0.306, 0.295, 0.312, 0.312, 0.31, 0.31, 0.289, 0.299, 0.303, 0.316, 0.333, 0.333, 0.323, 0.321, 0.321, 0.316, 0.32, 0.327, 0.333, 0.342, 0.329, 0.327, 0.335, 0.335, 0.336, 0.338, 0.338, 0.333, 0.338, 0.342, 0.344, 0.342, 0.363, 0.368, 0.361, 0.361, 0.365, 0.359, 0.359, 0.365, 0.363, 0.374, 0.383, 0.368, 0.382, 0.385, 0.382, 0.391, 0.387, 0.406, 0.408, 0.406, 0.425, 0.419, 0.421, 0.429, 0.421, 0.423, 0.423, 0.438, 0.427, 0.43, 0.425, 0.44, 0.434, 0.434, 0.457, 0.459, 0.459, 0.466, 0.47, 0.47, 0.479, 0.462, 0.466, 0.474, 0.472, 0.479, 0.477, 0.474, 0.476, 0.479, 0.47, 0.476, 0.47, 0.466, 0.474, 0.477, 0.468, 0.472, 0.468, 0.47, 0.476, 0.477, 0.479, 0.479, 0.479, 0.47, 0.474, 0.483, 0.479, 0.494, 0.491, 0.498, 0.492, 0.487, 0.496, 0.489, 0.508, 0.491, 0.496, 0.494, 0.508, 0.5, 0.491]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0, 30, 60]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0, 41.32227511405952, 70.01402659416206]</t>
+          <t>[0, 41.32227511405952, 70.01402659416206, 101.390316271782, 142.04481863975525, 185.43140425682063, 211.38924679756158, 242.38784775733942, 267.4065691471099, 267.8262691497802, 303.35208663940426, 329.8586328148842, 352.58995065093035, 378.19561457037923, 419.7988626897335, 445.7166780889034, 490.9924945771694, 509.72722187638277, 548.6672008574008, 584.0525947391985, 616.3435459673403, 617.1919459879397, 648.1255564272402, 687.018841511011, 703.7800853073596, 739.2093827545642, 794.5133757889269, 829.3469080746171, 863.7698368132111, 901.2480354368682, 911.7665614545341, 941.7267843663689, 975.8098267018792, 1013.5150433242318, 1054.9223840892312, 1082.4569150865075, 1093.410161322355, 1111.023377948999, 1142.6526225626465, 1152.5700805246827, 1161.431707078218, 1180.5620060026642, 1219.6924285471437, 1251.9247956335541, 1292.0596938192841, 1317.8234809458252, 1354.9879952132696, 1381.9997218906874, 1416.0545046150678, 1450.9449978888028, 1472.9343606531613, 1510.3012911856167, 1533.0114307463161, 1554.1348896026605, 1578.8893895387644, 1620.4926376581186, 1633.5627878189082, 1673.2891116142268, 1705.8588016748424, 1710.4127443313594, 1730.2195095777506, 1737.8501832246775, 1741.52884209156, 1777.6928457498545, 1823.1722437620158, 1846.221755456924, 1884.7019105434413, 1907.3952802777285, 1941.3080019593233, 1976.1984950184815, 2006.234390509128, 2043.5613319516176, 2067.973528039455, 2101.7196496367446, 2136.5876766085617, 2175.743674838542, 2184.5102250456803, 2224.6655380606644, 2244.8988513112063, 2244.8988513112063, 2260.915850484371, 2284.576079237461, 2308.5903100848195, 2337.6834556460376, 2368.3673193812365, 2403.118267810344, 2415.3603681445115, 2466.8536518931382, 2487.8992930531494, 2487.8992930531494, 2504.800552618503, 2528.1530853867525, 2559.8191322207445, 2597.483270156383, 2637.2395828127856, 2667.8950958132737, 2679.0671789169305, 2697.1960928320877, 2728.2125695586196, 2739.546807229518, 2749.0583012223233, 2777.0828014731396, 2816.849120748042, 2851.074051654338, 2895.1356684565535, 2924.658673822879, 2936.596404850482, 2959.306111371516, 2991.939580142497, 3024.997773349284, 3033.581296157836, 3071.9215514183034, 3103.9312220096576, 3149.9469424724566, 3193.663782215117, 3232.3213749408706, 3256.8676846504195, 3287.8662856101973, 3315.065843200682, 3315.4855432033523, 3353.5289003849016]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0, 1.1, 2.49]</t>
+          <t>[0, 1.1, 2.49, 4.21, 7.43, 11.15, 14.88, 27.51, 42.85, 50.35, 64.96, 74.76, 88.04, 105.5, 116.51, 137.25, 156.25, 171.65, 187.71, 200.2, 218.35, 237.05, 270.31, 296.1, 309.67, 325.54, 343.3, 361.42, 377.67, 392.52, 408.33, 424.47, 444.5, 460.54, 487.84, 502.76, 515.95, 541.48, 570.84, 590.74, 608.08, 629.46, 658.66, 678.28, 700.56, 722.52, 741.28, 766.12, 781.13, 802.89, 825.07, 845.26, 865.78, 888.97, 910.71, 951.22, 988.01, 1022.47, 1056.73, 1081.05, 1107.5, 1140.28, 1174.11, 1205.65, 1235.62, 1269.86, 1293.81, 1323.03, 1350.27, 1377.5, 1408.24, 1436.22, 1470.15, 1497.76, 1539.03, 1576.14, 1604.67, 1637.79, 1667.16, 1697.1, 1738.44, 1775.61, 1808.06, 1835.79, 1870.97, 1906.85, 1940.64, 1975.99, 2006.58, 2036.42, 2070.94, 2101.83, 2134.63, 2167.41, 2202.13, 2233.21, 2263.2, 2297.68, 2335.46, 2367.94, 2403.5, 2434.6, 2469.24, 2505.01, 2541.71, 2577.5, 2607.67, 2648.71, 2687.45, 2722.21, 2757.34, 2799.16, 2839.86, 2873.87, 2912.46, 2949.26, 2984.06, 3035.0, 3072.6, 3109.88, 3152.12]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[0, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, -10, 0, -10, -10, -10, -10, -20, 0, 0, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, -20, -20, -20, -20, -20, -20, -20, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -20]</t>
+          <t>[0, 0, -10, 0, -10, -10, -10, -10, 0, -20, -20, 0, -10, 0, 0, 0, 0, -20, -20, -10, -10, 0, 0, 0, -10, 0, -20, 0, -20, 0, 0, -20, 0, -20, -20, 0, -20, -20, 0, -10, 0, -20, -20, 0, 0, -20, 0, 0, 0, 0, -20, -10, 0, -20, 0, -20, -10, -20, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, -10, -10, 0, 0, -20, -20]</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -678,37 +678,37 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5']</t>
+          <t>['FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train1_2', 'FloorPlan_Train2_2', 'FloorPlan_Train3_2', 'FloorPlan_Train4_2', 'FloorPlan_Train5_2', 'FloorPlan_Train6_2', 'FloorPlan_Train7_2', 'FloorPlan_Train8_2', 'FloorPlan_Train9_2', 'FloorPlan_Train10_2', 'FloorPlan_Train11_1', 'FloorPlan_Train11_2', 'FloorPlan_Train11_3', 'FloorPlan_Train11_4', 'FloorPlan_Train11_5', 'FloorPlan_Train12_1', 'FloorPlan_Train12_2', 'FloorPlan_Train12_3', 'FloorPlan_Train12_4', 'FloorPlan_Train12_5', 'FloorPlan_Train1_1', 'FloorPlan_Train2_1', 'FloorPlan_Train3_1', 'FloorPlan_Train4_1', 'FloorPlan_Train5_1', 'FloorPlan_Train6_1', 'FloorPlan_Train7_1', 'FloorPlan_Train8_1', 'FloorPlan_Train9_1', 'FloorPlan_Train10_1', 'FloorPlan_Train1_5', 'FloorPlan_Train2_5', 'FloorPlan_Train3_5', 'FloorPlan_Train4_5', 'FloorPlan_Train5_1', 'FloorPlan_Train6_5', 'FloorPlan_Train7_5', 'FloorPlan_Train8_5', 'FloorPlan_Train9_5', 'FloorPlan_Train10_5']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[81, 124, 124]</t>
+          <t>[81, 124, 124, 167, 167, 257, 293, 346, 359, 366, 366, 366, 366, 366, 384, 384, 424, 482, 516, 516, 531, 531, 597, 597, 597, 597, 597, 614, 635, 635, 638, 651, 656, 663, 663, 700, 700, 727, 782, 782, 809, 828, 839, 839, 839, 899, 899, 908, 908, 908, 923, 923, 923, 923, 923, 971, 971, 971, 972, 994, 995, 1021, 1024, 1031, 1055, 1084, 1097, 1097, 1097, 1097, 1117, 1125, 1127, 1128, 1128, 1165, 1165, 1175, 1175, 1176, 1178, 1178, 1182, 1182, 1182, 1182, 1182, 1186, 1186, 1186, 1187, 1188, 1188, 1188, 1188, 1188, 1188, 1221, 1223, 1223, 1232, 1234, 1240, 1257, 1289, 1294, 1294, 1294, 1294, 1294, 1298, 1298, 1298, 1298, 1298, 1298, 1298, 1298, 1310, 1312, 1312]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.278, 0.271, 0.273]</t>
+          <t>[0.278, 0.271, 0.273, 0.276, 0.276, 0.278, 0.274, 0.286, 0.291, 0.291, 0.295, 0.291, 0.297, 0.291, 0.301, 0.301, 0.312, 0.327, 0.329, 0.327, 0.325, 0.323, 0.314, 0.318, 0.32, 0.316, 0.318, 0.31, 0.329, 0.335, 0.331, 0.34, 0.359, 0.372, 0.368, 0.382, 0.38, 0.38, 0.378, 0.38, 0.402, 0.402, 0.395, 0.397, 0.402, 0.393, 0.398, 0.393, 0.385, 0.395, 0.391, 0.398, 0.398, 0.397, 0.393, 0.404, 0.402, 0.404, 0.4, 0.41, 0.408, 0.406, 0.432, 0.434, 0.449, 0.445, 0.43, 0.442, 0.449, 0.444, 0.461, 0.457, 0.444, 0.44, 0.457, 0.462, 0.453, 0.449, 0.472, 0.464, 0.464, 0.468, 0.455, 0.464, 0.459, 0.466, 0.459, 0.466, 0.464, 0.474, 0.461, 0.47, 0.462, 0.466, 0.464, 0.462, 0.479, 0.476, 0.453, 0.457, 0.464, 0.476, 0.466, 0.479, 0.492, 0.481, 0.474, 0.485, 0.483, 0.489, 0.487, 0.483, 0.489, 0.487, 0.481, 0.483, 0.487, 0.491, 0.474, 0.489, 0.479]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0, 30, 60]</t>
+          <t>[0, 30, 60, 90, 120, 150, 180, 210, 240, 270, 300, 330, 360, 390, 420, 450, 480, 510, 540, 570, 600, 630, 660, 690, 720, 750, 780, 810, 840, 870, 900, 930, 960, 990, 1020, 1050, 1080, 1110, 1140, 1170, 1200, 1230, 1260, 1290, 1320, 1350, 1380, 1410, 1440, 1470, 1500, 1530, 1560, 1590, 1620, 1650, 1680, 1710, 1740, 1770, 1800, 1830, 1860, 1890, 1920, 1950, 1980, 2010, 2040, 2070, 2100, 2130, 2160, 2190, 2220, 2250, 2280, 2310, 2340, 2370, 2400, 2430, 2460, 2490, 2520, 2550, 2580, 2610, 2640, 2670, 2700, 2730, 2760, 2790, 2820, 2850, 2880, 2910, 2940, 2970, 3000, 3030, 3060, 3090, 3120, 3150, 3180, 3210, 3240, 3270, 3300, 3330, 3360, 3390, 3420, 3450, 3480, 3510, 3540, 3570, 3600]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0, 44.55040068626405, 68.47384808063512]</t>
+          <t>[0, 44.55040068626405, 68.47384808063512, 78.11364877223974, 100.75583746433263, 144.80633547306064, 160.54973237514497, 203.66732771396644, 223.70195599794397, 227.896412909031, 243.1667022228242, 283.2109688282015, 309.5117410182955, 348.4949024915697, 390.0029641389848, 432.74820663928995, 464.61538636684423, 494.35728728771215, 517.4176671743394, 517.8373671770097, 550.9829674959184, 587.6192114114763, 626.1894400835038, 667.8075360774995, 705.8577253580095, 746.2196646928788, 773.8742686510087, 801.5216695070268, 826.7812945365907, 827.200994539261, 856.729399251938, 867.5444080233575, 884.8631243050099, 923.2491931259633, 961.4262914001943, 980.5858103811742, 998.3841808199883, 1021.2639969706536, 1049.504079782963, 1081.4251694083214, 1094.1104673743248, 1101.9401113271713, 1134.4702219247818, 1157.0045891046523, 1197.1394872903822, 1222.698954105377, 1253.5560170114038, 1269.550794392824, 1299.3385602295396, 1331.259649854898, 1345.0557985603805, 1380.5064700901503, 1400.1917051374908, 1415.3104783594604, 1436.9625062406058, 1475.6290544927115, 1488.1672536790365, 1529.8314469277855, 1550.9782716929908, 1579.3094920814033, 1610.8741142690178, 1636.1314925849433, 1661.5047069489951, 1703.3774712502952, 1737.3156841695304, 1774.024432510137, 1786.9373328626152, 1824.2579362332817, 1840.3157329738137, 1840.3157329738137, 1855.3688844263552, 1866.3508759856222, 1882.5665482401846, 1905.5242145657537, 1941.7435129284856, 1976.238973844051, 2019.0638714313504, 2046.6728523254392, 2080.5111027717585, 2114.411794829368, 2129.860932207107, 2139.426553821563, 2181.3856806278222, 2218.2919879436486, 2261.853035974502, 2286.56539299488, 2335.899689483642, 2357.4238789081564, 2393.051420187949, 2427.694463157653, 2442.3820636034, 2476.898391747474, 2515.143915772437, 2554.5290810108177, 2594.5017342567435, 2635.3423236846916, 2660.5568983077997, 2688.6231991767877, 2713.4944693088523, 2713.9141693115225, 2749.091271877288, 2783.172849416732, 2810.7451273202887, 2845.6359582185737, 2880.5039851903907, 2919.659983420371, 2933.9144838094703, 2975.0146277189247, 2992.8325407505026, 2992.8325407505026, 3008.770039534568, 3049.9527575731267, 3073.9705706834784, 3088.9750977754584, 3115.8895053148262, 3158.47165338993, 3173.3624536037437, 3219.3868531227104, 3250.1232107639303, 3268.089003300666, 3295.1728732705105]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0, 16.41, 18.02]</t>
+          <t>[0, 16.41, 18.02, 27.14, 32.98, 60.08, 77.45, 93.29, 102.54, 113.72, 122.79, 131.15, 137.53, 146.45, 159.85, 165.53, 188.86, 208.11, 227.57, 240.84, 255.25, 275.31, 308.95, 326.26, 344.02, 367.08, 387.45, 416.16, 433.75, 445.14, 463.3, 486.18, 509.27, 530.55, 548.2, 570.98, 587.64, 614.37, 640.05, 657.07, 682.07, 702.82, 730.1, 754.31, 783.49, 820.23, 839.75, 867.85, 888.23, 907.27, 931.92, 952.62, 971.24, 994.51, 1014.8, 1052.28, 1083.95, 1116.79, 1148.34, 1184.22, 1214.54, 1252.58, 1286.76, 1322.5, 1354.36, 1391.57, 1419.85, 1448.58, 1472.31, 1502.56, 1531.65, 1559.65, 1585.01, 1613.4, 1644.54, 1688.1, 1721.03, 1756.47, 1788.61, 1821.35, 1856.37, 1890.7, 1925.28, 1956.51, 1991.3, 2023.22, 2058.15, 2095.84, 2132.08, 2167.11, 2198.22, 2227.51, 2263.62, 2294.26, 2327.55, 2360.63, 2395.88, 2437.72, 2473.45, 2510.51, 2546.02, 2586.12, 2626.36, 2673.17, 2711.89, 2746.39, 2783.99, 2817.31, 2856.33, 2893.68, 2929.9, 2969.97, 3010.08, 3049.35, 3089.97, 3129.24, 3166.9, 3207.47, 3247.82, 3284.61, 3323.03]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[0, -10, -10, 0, -10, -10, -10, -10, -10, -10, 0, -10, -10, -10, -10, -10, -10, -10, -10, -10, -20, -20, -20, -20, 0, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, -20, 0, -20, -20, -10, -20, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -20]</t>
+          <t>[0, -10, -10, 0, -10, -10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, -10, 0, -10, -10, 0, 0, 0, -10, -10, 0, -20, 0, 0, -20, -20, -20, -20, 0, -20, 0, 0, -10, 0, -20, -20, -20, 0, -20, -20, -20, 0, 0, -20, -20, -20, -20, 0, 0, -20, -20, -20, 0, -10, -10, -10, 0, -10, -10, 0, 0, -10, 0, 0, 0, 0, -10, -10, 0, 0, 0, 0, 0, -20]</t>
         </is>
       </c>
     </row>
